--- a/inventory_list.xlsx
+++ b/inventory_list.xlsx
@@ -108,7 +108,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +119,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -151,12 +159,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,8 +484,8 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -498,234 +508,234 @@
       </c>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
+    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="6">
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3">
+    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4">
+    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="6">
         <v>0.15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5">
+    <row r="5" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6">
+    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="6">
         <v>1.75</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7">
+    <row r="7" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="6">
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8">
+    <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="6">
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9">
+    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10">
+    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="6">
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11">
+    <row r="11" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="6">
         <v>1.8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12">
+    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="6">
         <v>0.15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13">
+    <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14">
+    <row r="14" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15">
+    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="6">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16">
+    <row r="16" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="6">
         <v>0.13</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17">
+    <row r="17" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="6">
         <v>1.35</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18">
+    <row r="18" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="6">
         <v>0.72</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19">
+    <row r="19" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="6">
         <v>0.66</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20">
+    <row r="20" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="6">
         <v>1.89</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21">
+    <row r="21" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="6">
         <v>3.45</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22">
+    <row r="22" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="6">
         <v>0.32</v>
       </c>
     </row>

--- a/inventory_list.xlsx
+++ b/inventory_list.xlsx
@@ -108,7 +108,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,14 +119,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -159,14 +151,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,16 +475,18 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="5.68359375" customWidth="1"/>
-    <col min="2" max="2" width="16.7890625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.15625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.68359375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.7890625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.15625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83984375" style="4"/>
+    <col min="5" max="5" width="16.7890625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83984375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
@@ -508,234 +501,234 @@
       </c>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="5">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>0.15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>1.75</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="5">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="5">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="5">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="5">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="5">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>1.8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="5">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>0.15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="5">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="5">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="5">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="5">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>0.13</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="5">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>1.35</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="5">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>0.72</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="5">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>0.66</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="5">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>1.89</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="5">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>3.45</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="5">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>0.32</v>
       </c>
     </row>
